--- a/biology/Botanique/Leptopteris/Leptopteris.xlsx
+++ b/biology/Botanique/Leptopteris/Leptopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptopteris est un genre de fougères de la famille des Osmundaceae, endémique d'Océanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est endémique d'Océanie, représenté par sept espèces en Australie, en Nouvelle-Zélande, en Nouvelle-Guinée, en Nouvelle-Calédonie et dans plusieurs autres îles du Pacifique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est endémique d'Océanie, représenté par sept espèces en Australie, en Nouvelle-Zélande, en Nouvelle-Guinée, en Nouvelle-Calédonie et dans plusieurs autres îles du Pacifique.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces actuelles
-Selon le Catalogue of Life                                   (24 septembre 2023)[2] :
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le Catalogue of Life                                   (24 septembre 2023) :
 Leptopteris alpina (Baker) C.Chr.
 Leptopteris fraseri (Hook. &amp; Grev.) C.Presl
 Leptopteris hymenophylloides (A.Rich.) C.Presl
@@ -553,7 +572,7 @@
 Leptopteris superba (Colenso) C.Presl
 Leptopteris wilkesiana (Brack.) Christ
 Leptopteris ×intermedia (B.S.Williams ex T.Moore) Gower
-Selon Plants of the World online (POWO)                (24 septembre 2023)[1] :
+Selon Plants of the World online (POWO)                (24 septembre 2023) :
 Leptopteris alpina (Baker) C.Chr.
 Leptopteris fraseri (Hook. &amp; Grev.) C.Presl
 Leptopteris hymenophylloides (A.Rich.) C.Presl
@@ -561,10 +580,7 @@
 Leptopteris laxa Copel.
 Leptopteris moorei (Baker) Christ
 Leptopteris superba (Colenso) C.Presl
-Leptopteris wilkesiana (Brack.) Gower
-Espèce fossile
-Selon The International Fossil Plant Names Index (IFPNI)                (24 septembre 2023)[3] :
-Leptopteris minuta Romanovskaja in Romanovskaja, 1960</t>
+Leptopteris wilkesiana (Brack.) Gower</t>
         </is>
       </c>
     </row>
@@ -589,13 +605,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce fossile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The International Fossil Plant Names Index (IFPNI)                (24 septembre 2023) :
+Leptopteris minuta Romanovskaja in Romanovskaja, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leptopteris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptopteris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leptopteris C.Presl, 1845[2],[1],[4], proposé en 1845 par le botaniste tchèque Karel Bořivoj Presl[5]. C'est une nomen conservandum (nom. cons.)[1]. L'espèce type est Leptopteris hymenophylloides, lectotype désigné en 1906 par C. Christensen[4].
-Selon The International Fossil Plant Names Index (IFPNI)                (24 septembre 2023)[3], Leptopteris C.Presl, 1845 est un nom illégitime, homonyme junior de Leptopteris Brongn., 1829. Tropicos                                           (24 septembre 2023)[4] rapporte un deuxième homonyme : Leptopteris Blume, 1850.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leptopteris C.Presl, 1845 proposé en 1845 par le botaniste tchèque Karel Bořivoj Presl. C'est une nomen conservandum (nom. cons.). L'espèce type est Leptopteris hymenophylloides, lectotype désigné en 1906 par C. Christensen.
+Selon The International Fossil Plant Names Index (IFPNI)                (24 septembre 2023), Leptopteris C.Presl, 1845 est un nom illégitime, homonyme junior de Leptopteris Brongn., 1829. Tropicos                                           (24 septembre 2023) rapporte un deuxième homonyme : Leptopteris Blume, 1850.
 </t>
         </is>
       </c>
